--- a/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7404,7 +7405,6 @@
           <t>工银稳健成长混合H</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
           <t>94.35</t>
@@ -7420,6 +7420,4192 @@
       </c>
       <c r="H108" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.4173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>287.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.7281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>158.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15.1092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>212.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>13.2731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.7784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>219.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.1178</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.8208</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.6344</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.4550</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.8696</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.5599</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.8463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>53.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.7738</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.3819</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>188.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3391</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>49.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.0993</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9545</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>168.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.9178</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6582</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>60.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6334</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>45.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6069</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010550</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商双擎领航混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5184</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2599</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2022</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>36.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1788</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1682</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0898</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.0394</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006308</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9935</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006310</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9935</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9274</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9248</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8569</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7926</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7613</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7260</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7013</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6242</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5507</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5308</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4756</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4123</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3893</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3799</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3542</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3499</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010869</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富稳健欣享一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001384</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.46</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006309</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1326</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>36.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>68.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001385</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方新思路灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>36.89</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008709</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>银河龙头精选股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004436</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>28.94</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004437</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富年年泰定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>31.34</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11554,7 +11555,6 @@
           <t>东方红启阳三年持有期混合B</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>90.07</t>
@@ -11606,6 +11606,3704 @@
       </c>
       <c r="H110" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15.2774</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.2634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>209.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.4236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.1139</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7716</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>169.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.6670</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.3603</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.3603</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>67.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.2161</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.0415</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5794</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>61.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3808</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2538</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1965</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>173.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7028</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4188</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4032</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>36.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1218</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0349</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9746</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9692</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501065</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富经典成长定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9315</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010298</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富品牌驱动六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8116</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6735</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002959</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富盈泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6717</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6693</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5032</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4627</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4626</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4554</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4468</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4326</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4246</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3205</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2966</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2708</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005235</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>540009</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇丰晋信消费红利股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001172</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>73.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005236</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华食品饮料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>76.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>66.11</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001381</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>鹏华弘泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>58.61</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15288,7 +15289,6 @@
           <t>东方红启阳三年持有期混合B</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>79.89</t>
@@ -15304,6 +15304,106 @@
       </c>
       <c r="H97" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>96</v>
+      </c>
+      <c r="D2" t="n">
+        <v>110.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>151.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>94.54000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59.95</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15317,7 +15318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15328,17 +15329,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15348,14 +15369,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>96</v>
-      </c>
-      <c r="D2" t="n">
-        <v>110.42</v>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>132.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -15364,14 +15407,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>109</v>
-      </c>
-      <c r="D3" t="n">
-        <v>151.45</v>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>218.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.3728</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -15380,14 +15445,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>107</v>
-      </c>
-      <c r="D4" t="n">
-        <v>94.54000000000001</v>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.3694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -15396,13 +15483,1709 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.0986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013516</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5413</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>66.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5439</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009265</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达消费精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4400</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4365</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9082</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8973</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8921</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8658</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7807</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010736</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5988</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5567</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4069</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010737</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达沪深300指数精选增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002421</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华增强债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002422</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华增强债券C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>96</v>
+      </c>
+      <c r="D3" t="n">
+        <v>110.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>151.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>107</v>
+      </c>
+      <c r="D5" t="n">
+        <v>94.54000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>74</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>59.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17084,7 +17085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17095,17 +17096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17115,14 +17136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>57.6</v>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -17131,14 +17174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>96</v>
-      </c>
-      <c r="D3" t="n">
-        <v>110.42</v>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -17147,14 +17212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>109</v>
-      </c>
-      <c r="D4" t="n">
-        <v>151.45</v>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -17163,14 +17250,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>107</v>
-      </c>
-      <c r="D5" t="n">
-        <v>94.54000000000001</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1800</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -17179,13 +17288,994 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9428</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6460</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6351</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1829</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>110.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>151.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>107</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.54000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>74</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>59.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18158,7 +18159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18169,17 +18170,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18189,14 +18210,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.74</v>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3683</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -18205,14 +18248,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>57.6</v>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0823</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -18221,14 +18286,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>96</v>
-      </c>
-      <c r="D4" t="n">
-        <v>110.42</v>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8966</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -18237,14 +18324,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>109</v>
-      </c>
-      <c r="D5" t="n">
-        <v>151.45</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8736</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -18253,14 +18362,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>107</v>
-      </c>
-      <c r="D6" t="n">
-        <v>94.54000000000001</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4907</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -18269,13 +18400,1352 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8782</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8358</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7538</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发招享混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6277</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6131</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5403</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3792</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富兰克林国海竞争优势三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001816</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002164</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富新睿精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>110.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>109</v>
+      </c>
+      <c r="D6" t="n">
+        <v>151.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>107</v>
+      </c>
+      <c r="D7" t="n">
+        <v>94.54000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>74</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>59.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>31.95</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>21.74</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>57.6</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>110.42</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D6" t="n">
-        <v>151.45</v>
+        <v>110.42</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" t="n">
-        <v>94.54000000000001</v>
+        <v>151.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>107</v>
+      </c>
+      <c r="D8" t="n">
+        <v>94.54000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>74</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>59.95</v>
       </c>
     </row>
@@ -600,6 +617,1392 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4326</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3740</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8348</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9749</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>145.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4292</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0151</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银互联网加股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8958</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5829</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发招享混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3973</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2691</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银优质精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2052,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3125,7 +4528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4891,7 +6294,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8588,7 +9991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12773,7 +14176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16888,7 +18291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002568-百润股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="D2" t="n">
-        <v>28.29</v>
+        <v>57.68</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>31.95</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>21.74</v>
+        <v>31.95</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>57.6</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>110.42</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D7" t="n">
-        <v>151.45</v>
+        <v>110.42</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" t="n">
-        <v>94.54000000000001</v>
+        <v>151.45</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2896 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>107</v>
+      </c>
+      <c r="D9" t="n">
+        <v>94.54000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>74</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>59.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.2083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000083</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富消费行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>176.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.1842</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1675</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.1667</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红睿轩三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.4801</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>67.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2680</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9758</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7045</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5579</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富消费升级混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5134</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9554</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9238</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7811</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7549</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5504</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5406</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5130</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4288</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3656</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>240011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝大盘精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001030</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘云端生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009875</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004687</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003769</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009876</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>天弘甄选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>673071</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>49.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>673073</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004688</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富熙和精选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001696</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方智造未来股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>35.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>74.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3500,3810 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8522</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>66.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.1760</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169104</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000619</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6522</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5064</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7188</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501066</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红恒元五年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4536</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>123.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3611</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1890</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银互联网加股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1412</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009121</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发招享混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>52.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7608</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7506</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6854</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6626</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6625</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5973</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001437</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5291</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001438</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达瑞享灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5291</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5230</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4726</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008515</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海基本面优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4694</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011468</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4511</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银主题策略混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3936</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002711</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发集丰债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>29.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3921</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013588</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银稳健瑞盈一年持有债券A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3744</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银优质精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3516</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013880</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发招享混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>27.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009564</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012631</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2647</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1995</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014505</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银收益混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012880</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014506</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015386</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银主题策略混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010965</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013589</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银稳健瑞盈一年持有债券C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013144</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012388</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>910010</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方红新海混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>910026</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013143</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国安诚回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011469</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国富竞争优势三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012387</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国金ESG持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002712</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发集丰债券C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010962</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中银鑫新消费成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010506</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>东方红睿玺三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009565</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安消费龙头混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002547</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>民生加银养老服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014960</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014507</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时成长臻选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000761</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国富健康优质生活股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015692</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003685</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014335</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003684</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇安丰融灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>015668</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>83.68</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>015936</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011725</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>东方红新源三年持有混合B</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2002,7 +8689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3455,7 +10142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4528,7 +11215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6294,7 +12981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9991,7 +16678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14176,7 +20863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18289,2870 +24976,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H75"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501054</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红睿泽三年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>128.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>12.2083</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000083</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富消费行业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>176.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>9.1842</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519068</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富成长焦点混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>95.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.1676</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519066</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富蓝筹稳健混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>101.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4.1675</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000619</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>东方红产业升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>61.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4.1667</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>169103</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>东方红睿轩三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>52.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.4801</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009576</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>东方红智远三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>67.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.2680</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>310308</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信盛利精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>73.74</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.9758</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>169104</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方红睿满沪港深灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>41.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.38</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.7045</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003378</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康策略优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>24.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.5632</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003396</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方红优享红利沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>26.63</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.5579</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006408</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富消费升级混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>37.46</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.5134</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>202001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方稳健成长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>26.32</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>75.38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.9554</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001712</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>东方红优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15.27</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.9238</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>202002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方稳健成长贰号混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>21.46</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>76.74</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.7811</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009601</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商科技动力3个月滚动持有股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>19.71</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.06</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.7549</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007193</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>恒越核心精选混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.6040</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001140</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>工银总回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>88.72</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5504</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>310328</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>申万菱信新动力混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>18.77</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>84.14</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.5406</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>398021</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中海能源策略混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.5372</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003516</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>国泰融安多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>14.29</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.58</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.5130</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001054</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银新金融股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.55</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.4701</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006299</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>恒越核心精选混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>85.24</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.4288</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>163805</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中银动态策略混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.75</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3656</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001048</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>富国新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>14.02</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2916</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009874</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>九泰久睿量化股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>15.49</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2897</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>310388</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>申万菱信消费增长混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2521</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>163809</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中银蓝筹精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>79.40</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2190</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002160</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>南方转型驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2077</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>501015</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>财通多策略升级混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.25</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2058</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>240011</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华宝大盘精选混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.2051</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005014</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1772</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>000609</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华商新量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.1683</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>020023</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>国泰事件驱动策略混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.1580</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001496</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>工银瑞信聚焦30股票</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.49</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.1557</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001437</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001438</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>易方达瑞享灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>000993</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华宝稳健回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.1446</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>001030</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>天弘云端生活优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>91.85</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.1379</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>006049</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合A/B</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.1230</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>007192</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>恒越研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>82.80</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.1230</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>009875</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.1214</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>502000</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.1166</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>006022</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>富国大盘价值量化精选混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.1129</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>001305</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.1036</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>004687</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>汇添富熙和精选混合A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>31.91</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0883</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>003769</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>中银品质生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>89.83</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0850</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>487021</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>工银瑞信优质精选混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>86.95</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0832</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009876</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>天弘甄选食品饮料股票C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>86.08</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0701</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001320</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>工银瑞信丰盈回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>78.31</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0697</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>009602</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>招商科技动力3个月滚动持有股票C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>81.06</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0628</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>673071</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>西部利得新动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>27.58</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0624</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>673120</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>西部利得新富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>73.08</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>002594</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>工银瑞信现代服务业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>49.39</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0553</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>673073</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>西部利得新动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>27.58</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0494</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>004688</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>汇添富熙和精选混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>31.91</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0449</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>011032</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>东方红睿泽三年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>9.48</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0427</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>001696</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>南方智造未来股票</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>160616</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>009043</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>九泰久信量化股票</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>009300</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0204</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>005015</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合C</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>35.55</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>005264</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>国都多策略混合</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>74.97</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>006783</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>009039</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>008230</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>九泰天辰量化新动力股票</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>006938</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>98.59</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>006784</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>红土创新中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>009040</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>九泰久远量化驱动股票C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>92.26</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>011477</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>工银总回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>88.72</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>